--- a/results.xlsx
+++ b/results.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14260" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Calltech 4" sheetId="1" r:id="rId1"/>
+    <sheet name="Calltech 15" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
   <si>
     <t>NN L2</t>
   </si>
@@ -67,13 +68,22 @@
   </si>
   <si>
     <t>multi scale</t>
+  </si>
+  <si>
+    <t>dsift</t>
+  </si>
+  <si>
+    <t>sift</t>
+  </si>
+  <si>
+    <t>msift</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -104,6 +114,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -122,14 +139,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -141,12 +160,17 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -478,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1469,4 +1493,151 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:O21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:15" ht="18">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="18">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -382,11 +382,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2090627448"/>
-        <c:axId val="2090609224"/>
+        <c:axId val="2083064200"/>
+        <c:axId val="2083066632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2090627448"/>
+        <c:axId val="2083064200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -396,7 +396,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090609224"/>
+        <c:crossAx val="2083066632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -404,7 +404,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090609224"/>
+        <c:axId val="2083066632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -415,7 +415,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090627448"/>
+        <c:crossAx val="2083064200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1794,7 +1794,7 @@
   <dimension ref="B5:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2103,10 +2103,10 @@
         <v>19</v>
       </c>
       <c r="J20">
-        <v>66.89</v>
+        <v>64.67</v>
       </c>
       <c r="K20">
-        <v>80.33</v>
+        <v>78.44</v>
       </c>
     </row>
     <row r="21" spans="2:16">

--- a/results.xlsx
+++ b/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>NN L2</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>30train/30test/500vc/dense</t>
+  </si>
+  <si>
+    <t>Localized Kernel Codebook</t>
   </si>
 </sst>
 </file>
@@ -163,8 +166,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -194,23 +205,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="21">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD30B00"/>
+      <color rgb="FF009DD0"/>
+      <color rgb="FF0C9B10"/>
+      <color rgb="FFE3DC02"/>
+      <color rgb="FFC40802"/>
+      <color rgb="FF263BFF"/>
+      <color rgb="FF11D6E1"/>
+      <color rgb="FFD413E6"/>
+      <color rgb="FF0FB712"/>
+      <color rgb="FFFFF700"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -382,11 +415,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2083064200"/>
-        <c:axId val="2083066632"/>
+        <c:axId val="2076397224"/>
+        <c:axId val="2076392184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2083064200"/>
+        <c:axId val="2076397224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -396,7 +429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083066632"/>
+        <c:crossAx val="2076392184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -404,7 +437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083066632"/>
+        <c:axId val="2076392184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -415,9 +448,257 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083064200"/>
+        <c:crossAx val="2076397224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="135"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="35"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calltech 15'!$I$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calltech 15'!$J$19:$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>NN Chi-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM IK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calltech 15'!$J$20:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>67.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calltech 15'!$I$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Codebook Uncertainty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calltech 15'!$J$19:$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>NN Chi-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM IK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calltech 15'!$J$23:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>68.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calltech 15'!$I$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Localized Codebook Uncertainty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00353839888051129"/>
+                  <c:y val="0.0013995427990856"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calltech 15'!$J$19:$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>NN Chi-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM IK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calltech 15'!$J$24:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>68.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="250"/>
+        <c:axId val="2131902360"/>
+        <c:axId val="2089412840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2131902360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2089412840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2089412840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="55.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2131902360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5.0"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -443,13 +724,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -464,6 +745,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1791,10 +2102,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:P23"/>
+  <dimension ref="B5:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2025,7 +2336,7 @@
         <v>82</v>
       </c>
       <c r="O15">
-        <v>71.790000000000006</v>
+        <v>71.89</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -2103,10 +2414,10 @@
         <v>19</v>
       </c>
       <c r="J20">
-        <v>64.67</v>
+        <v>67.67</v>
       </c>
       <c r="K20">
-        <v>78.44</v>
+        <v>80.44</v>
       </c>
     </row>
     <row r="21" spans="2:16">
@@ -2123,35 +2434,46 @@
         <v>20</v>
       </c>
       <c r="J21">
-        <v>48.78</v>
+        <v>49.11</v>
       </c>
       <c r="K21">
-        <v>62.23</v>
+        <v>57.78</v>
       </c>
     </row>
     <row r="22" spans="2:16">
       <c r="I22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22">
+        <v>60.22</v>
+      </c>
+      <c r="K22">
+        <v>69.78</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="I23" t="s">
         <v>21</v>
       </c>
-      <c r="J22">
-        <v>59.78</v>
-      </c>
-      <c r="K22">
-        <v>77.150000000000006</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16">
-      <c r="B23" t="s">
+      <c r="J23">
+        <v>68.78</v>
+      </c>
+      <c r="K23">
+        <v>80.89</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I24" t="s">
         <v>22</v>
       </c>
-      <c r="J23">
-        <v>66.44</v>
-      </c>
-      <c r="K23">
-        <v>78</v>
+      <c r="J24">
+        <v>68.22</v>
+      </c>
+      <c r="K24">
+        <v>81.23</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -415,21 +415,40 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2067140440"/>
-        <c:axId val="2067148312"/>
+        <c:axId val="2117706584"/>
+        <c:axId val="2118414328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2067140440"/>
+        <c:axId val="2117706584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200"/>
+                  <a:t>Vocabulary size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2067148312"/>
+        <c:crossAx val="2118414328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -437,18 +456,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2067148312"/>
+        <c:axId val="2118414328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200"/>
+                  <a:t>Accuracy (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2067140440"/>
+        <c:crossAx val="2117706584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -704,11 +742,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="2065982808"/>
-        <c:axId val="2065985672"/>
+        <c:axId val="2118457656"/>
+        <c:axId val="2118460744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2065982808"/>
+        <c:axId val="2118457656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -727,7 +765,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2065985672"/>
+        <c:crossAx val="2118460744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -735,7 +773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2065985672"/>
+        <c:axId val="2118460744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="55.0"/>
@@ -781,7 +819,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2065982808"/>
+        <c:crossAx val="2118457656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -867,16 +905,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2219,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -415,11 +415,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2117706584"/>
-        <c:axId val="2118414328"/>
+        <c:axId val="2075776760"/>
+        <c:axId val="2076391272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2117706584"/>
+        <c:axId val="2075776760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -448,7 +448,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118414328"/>
+        <c:crossAx val="2076391272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -456,7 +456,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118414328"/>
+        <c:axId val="2076391272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -486,7 +486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117706584"/>
+        <c:crossAx val="2075776760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -723,7 +723,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>68.22</c:v>
+                  <c:v>68.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>81.23</c:v>
@@ -742,11 +742,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="250"/>
-        <c:axId val="2118457656"/>
-        <c:axId val="2118460744"/>
+        <c:axId val="2075833944"/>
+        <c:axId val="2075837032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2118457656"/>
+        <c:axId val="2075833944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,7 +765,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118460744"/>
+        <c:crossAx val="2075837032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -773,7 +773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118460744"/>
+        <c:axId val="2075837032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="55.0"/>
@@ -819,7 +819,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118457656"/>
+        <c:crossAx val="2075833944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5.0"/>
@@ -905,16 +905,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2258,7 +2258,7 @@
   <dimension ref="B5:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2623,7 +2623,7 @@
         <v>27</v>
       </c>
       <c r="J24">
-        <v>68.22</v>
+        <v>68.930000000000007</v>
       </c>
       <c r="K24">
         <v>81.23</v>
